--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4135CEEE-1854-4506-8A7C-1491453CCFD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3FFF1D-E109-4394-8EB1-73D292909FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="2205" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>Product</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -37,12 +34,6 @@
     <t>3"</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>GLASS CHILLUMS</t>
-  </si>
-  <si>
     <t>7311111111107</t>
   </si>
   <si>
@@ -83,6 +74,135 @@
   </si>
   <si>
     <t>7316931110033</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>HP-09</t>
+  </si>
+  <si>
+    <t>HP-05</t>
+  </si>
+  <si>
+    <t>HP-02</t>
+  </si>
+  <si>
+    <t>HP-06</t>
+  </si>
+  <si>
+    <t>HP-30</t>
+  </si>
+  <si>
+    <t>HP-31</t>
+  </si>
+  <si>
+    <t>HP-01</t>
+  </si>
+  <si>
+    <t>HP-03</t>
+  </si>
+  <si>
+    <t>HP-04</t>
+  </si>
+  <si>
+    <t>HP-10</t>
+  </si>
+  <si>
+    <t>HP-12</t>
+  </si>
+  <si>
+    <t>HP-11</t>
+  </si>
+  <si>
+    <t>4 1/2"</t>
+  </si>
+  <si>
+    <t>4 5/8"</t>
+  </si>
+  <si>
+    <t>3 5/8"</t>
+  </si>
+  <si>
+    <t>4 1/4"</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>3 1/2"</t>
+  </si>
+  <si>
+    <t>8161111111091</t>
+  </si>
+  <si>
+    <t>8161111111053</t>
+  </si>
+  <si>
+    <t>8161111111022</t>
+  </si>
+  <si>
+    <t>8161111111060</t>
+  </si>
+  <si>
+    <t>8161111111305</t>
+  </si>
+  <si>
+    <t>8161111111312</t>
+  </si>
+  <si>
+    <t>8161111111015</t>
+  </si>
+  <si>
+    <t>8161111111039</t>
+  </si>
+  <si>
+    <t>8161111111046</t>
+  </si>
+  <si>
+    <t>8161111111107</t>
+  </si>
+  <si>
+    <t>8161111111121</t>
+  </si>
+  <si>
+    <t>8161111111114</t>
+  </si>
+  <si>
+    <t>SP-100</t>
+  </si>
+  <si>
+    <t>1916111111001</t>
+  </si>
+  <si>
+    <t>SP-101</t>
+  </si>
+  <si>
+    <t>1916111111018</t>
+  </si>
+  <si>
+    <t>SP-105</t>
+  </si>
+  <si>
+    <t>SP-102</t>
+  </si>
+  <si>
+    <t>SP-103</t>
+  </si>
+  <si>
+    <t>SP-104</t>
+  </si>
+  <si>
+    <t>1916111111056</t>
+  </si>
+  <si>
+    <t>1916111111025</t>
+  </si>
+  <si>
+    <t>1916111111032</t>
+  </si>
+  <si>
+    <t>1916111111049</t>
   </si>
 </sst>
 </file>
@@ -401,112 +521,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
